--- a/JS-267-S01.xlsx
+++ b/JS-267-S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTUE\Desktop\NODEREST-267TUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A24659-D68E-462F-8C1D-1343B8587AD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B234EE5-B289-4258-91C5-483637500AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="72">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -681,18 +681,6 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -705,7 +693,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,130 +1050,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="22" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="17" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,24 +1189,24 @@
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1297,7 +1297,9 @@
       <c r="J9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -1335,7 +1337,9 @@
       <c r="J10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1373,7 +1377,9 @@
       <c r="J11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1406,12 +1412,14 @@
         <v>63</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1449,7 +1457,9 @@
       <c r="J13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1487,7 +1497,9 @@
       <c r="J14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1525,7 +1537,9 @@
       <c r="J15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1563,7 +1577,9 @@
       <c r="J16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1601,7 +1617,9 @@
       <c r="J17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1639,7 +1657,9 @@
       <c r="J18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1677,7 +1697,9 @@
       <c r="J19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -1715,7 +1737,9 @@
       <c r="J20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -1753,7 +1777,9 @@
       <c r="J21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -1791,7 +1817,9 @@
       <c r="J22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -1829,7 +1857,9 @@
       <c r="J23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -1867,7 +1897,9 @@
       <c r="J24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -1905,7 +1937,9 @@
       <c r="J25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="7"/>
+      <c r="K25" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -1943,7 +1977,9 @@
       <c r="J26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -1981,7 +2017,9 @@
       <c r="J27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -2019,7 +2057,9 @@
       <c r="J28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -2057,7 +2097,9 @@
       <c r="J29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -2095,7 +2137,9 @@
       <c r="J30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="7"/>
+      <c r="K30" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -2107,38 +2151,38 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="16" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="3:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
         <v>65</v>
       </c>
@@ -2154,8 +2198,11 @@
       <c r="J33" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="3:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K33" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="s">
         <v>66</v>
       </c>
@@ -2171,8 +2218,11 @@
       <c r="J34" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="3:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K34" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>68</v>
       </c>
@@ -2188,8 +2238,11 @@
       <c r="J35" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K35" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -2205,8 +2258,11 @@
       <c r="J36" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>70</v>
       </c>
@@ -2222,8 +2278,11 @@
       <c r="J37" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K37" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>71</v>
       </c>
@@ -2239,20 +2298,23 @@
       <c r="J38" s="13" t="s">
         <v>67</v>
       </c>
+      <c r="K38" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-267-S01.xlsx
+++ b/JS-267-S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTUE\Desktop\NODEREST-267TUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B234EE5-B289-4258-91C5-483637500AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FECBA9-8FC1-451A-ADE9-F901BFAFFB08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="72">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -681,6 +681,18 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -693,19 +705,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,130 +1050,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,24 +1189,24 @@
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1300,7 +1300,9 @@
       <c r="K9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1340,7 +1342,9 @@
       <c r="K10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1380,7 +1384,9 @@
       <c r="K11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1420,7 +1426,9 @@
       <c r="K12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1460,7 +1468,9 @@
       <c r="K13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1500,7 +1510,9 @@
       <c r="K14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1540,7 +1552,9 @@
       <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1580,7 +1594,9 @@
       <c r="K16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1620,7 +1636,9 @@
       <c r="K17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1660,7 +1678,9 @@
       <c r="K18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1700,7 +1720,9 @@
       <c r="K19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1740,7 +1762,9 @@
       <c r="K20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -1780,7 +1804,9 @@
       <c r="K21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -1820,7 +1846,9 @@
       <c r="K22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -1860,7 +1888,9 @@
       <c r="K23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -1900,7 +1930,9 @@
       <c r="K24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -1940,7 +1972,9 @@
       <c r="K25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -1980,7 +2014,9 @@
       <c r="K26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2020,7 +2056,9 @@
       <c r="K27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2060,7 +2098,9 @@
       <c r="K28" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2100,7 +2140,9 @@
       <c r="K29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2140,7 +2182,9 @@
       <c r="K30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2151,38 +2195,38 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="22" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
         <v>65</v>
       </c>
@@ -2201,8 +2245,11 @@
       <c r="K33" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="L33" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="s">
         <v>66</v>
       </c>
@@ -2221,8 +2268,11 @@
       <c r="K34" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="L34" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>68</v>
       </c>
@@ -2241,8 +2291,11 @@
       <c r="K35" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="L35" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -2261,8 +2314,11 @@
       <c r="K36" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="L36" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>70</v>
       </c>
@@ -2281,8 +2337,11 @@
       <c r="K37" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="L37" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>71</v>
       </c>
@@ -2301,20 +2360,23 @@
       <c r="K38" s="12" t="s">
         <v>67</v>
       </c>
+      <c r="L38" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-267-S01.xlsx
+++ b/JS-267-S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTUE\Desktop\NODEREST-267TUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FECBA9-8FC1-451A-ADE9-F901BFAFFB08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D21154-CBEB-4961-8909-B8BE2E9D3404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,18 +681,6 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -705,7 +693,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,130 +1050,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="22" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="17" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,24 +1189,24 @@
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1466,7 +1466,7 @@
         <v>63</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>63</v>
@@ -1511,7 +1511,7 @@
         <v>67</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -2195,36 +2195,36 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="16" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
@@ -2366,17 +2366,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-267-S01.xlsx
+++ b/JS-267-S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTUE\Desktop\NODEREST-267TUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D21154-CBEB-4961-8909-B8BE2E9D3404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBD8DDF-7391-4BC2-B539-A6BCCF112783}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="72">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -681,6 +681,18 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -693,19 +705,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,130 +1050,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,24 +1189,24 @@
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1303,7 +1303,9 @@
       <c r="L9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1345,7 +1347,9 @@
       <c r="L10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1387,7 +1391,9 @@
       <c r="L11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1429,7 +1435,9 @@
       <c r="L12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1471,7 +1479,9 @@
       <c r="L13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1513,7 +1523,9 @@
       <c r="L14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1555,7 +1567,9 @@
       <c r="L15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1597,7 +1611,9 @@
       <c r="L16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1639,7 +1655,9 @@
       <c r="L17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1681,7 +1699,9 @@
       <c r="L18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -1723,7 +1743,9 @@
       <c r="L19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -1765,7 +1787,9 @@
       <c r="L20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -1807,7 +1831,9 @@
       <c r="L21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -1849,7 +1875,9 @@
       <c r="L22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="7"/>
+      <c r="M22" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -1891,7 +1919,9 @@
       <c r="L23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -1933,7 +1963,9 @@
       <c r="L24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -1975,7 +2007,9 @@
       <c r="L25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="7"/>
+      <c r="M25" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2017,7 +2051,9 @@
       <c r="L26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="7"/>
+      <c r="M26" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -2059,7 +2095,9 @@
       <c r="L27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="M27" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -2101,7 +2139,9 @@
       <c r="L28" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -2143,7 +2183,9 @@
       <c r="L29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M29" s="7"/>
+      <c r="M29" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -2185,7 +2227,9 @@
       <c r="L30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M30" s="7"/>
+      <c r="M30" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -2195,38 +2239,38 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="22" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
         <v>65</v>
       </c>
@@ -2248,8 +2292,11 @@
       <c r="L33" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M33" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="s">
         <v>66</v>
       </c>
@@ -2271,8 +2318,11 @@
       <c r="L34" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M34" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>68</v>
       </c>
@@ -2294,8 +2344,11 @@
       <c r="L35" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M35" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -2317,8 +2370,11 @@
       <c r="L36" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>70</v>
       </c>
@@ -2340,8 +2396,11 @@
       <c r="L37" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M37" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>71</v>
       </c>
@@ -2363,20 +2422,23 @@
       <c r="L38" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="M38" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-267-S01.xlsx
+++ b/JS-267-S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTUE\Desktop\NODEREST-267TUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBD8DDF-7391-4BC2-B539-A6BCCF112783}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4FF015-130D-4EFC-99CD-3F0CA44632D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="72">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -681,18 +681,6 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -705,7 +693,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,130 +1050,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="22" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="17" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,24 +1189,24 @@
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1306,7 +1306,9 @@
       <c r="M9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1350,7 +1352,9 @@
       <c r="M10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -1394,7 +1398,9 @@
       <c r="M11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1438,7 +1444,9 @@
       <c r="M12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1482,7 +1490,9 @@
       <c r="M13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1524,9 +1534,11 @@
         <v>67</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -1570,7 +1582,9 @@
       <c r="M15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -1614,7 +1628,9 @@
       <c r="M16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -1658,7 +1674,9 @@
       <c r="M17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1702,7 +1720,9 @@
       <c r="M18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -1746,7 +1766,9 @@
       <c r="M19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -1790,7 +1812,9 @@
       <c r="M20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -1834,7 +1858,9 @@
       <c r="M21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -1878,7 +1904,9 @@
       <c r="M22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -1922,7 +1950,9 @@
       <c r="M23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -1966,7 +1996,9 @@
       <c r="M24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -2010,7 +2042,9 @@
       <c r="M25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="7"/>
+      <c r="N25" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -2054,7 +2088,9 @@
       <c r="M26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="7"/>
+      <c r="N26" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -2098,7 +2134,9 @@
       <c r="M27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N27" s="7"/>
+      <c r="N27" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -2142,8 +2180,10 @@
       <c r="M28" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="N28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="10"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -2186,7 +2226,9 @@
       <c r="M29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N29" s="7"/>
+      <c r="N29" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -2230,7 +2272,9 @@
       <c r="M30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -2239,38 +2283,38 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="16" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
         <v>65</v>
       </c>
@@ -2295,8 +2339,11 @@
       <c r="M33" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N33" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="s">
         <v>66</v>
       </c>
@@ -2321,8 +2368,11 @@
       <c r="M34" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N34" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>68</v>
       </c>
@@ -2347,8 +2397,11 @@
       <c r="M35" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N35" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -2373,8 +2426,11 @@
       <c r="M36" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>70</v>
       </c>
@@ -2399,8 +2455,11 @@
       <c r="M37" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N37" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>71</v>
       </c>
@@ -2425,20 +2484,23 @@
       <c r="M38" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="N38" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-267-S01.xlsx
+++ b/JS-267-S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTUE\Desktop\NODEREST-267TUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4FF015-130D-4EFC-99CD-3F0CA44632D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1214275B-4DE9-42F1-8BD4-8AE4F1A0F868}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="72">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -681,6 +681,18 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -693,19 +705,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,130 +1050,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,24 +1189,24 @@
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1309,7 +1309,9 @@
       <c r="N9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="7"/>
+      <c r="O9" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -1355,7 +1357,9 @@
       <c r="N10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -1401,7 +1405,9 @@
       <c r="N11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="7"/>
+      <c r="O11" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -1447,7 +1453,9 @@
       <c r="N12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="7"/>
+      <c r="O12" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -1493,7 +1501,9 @@
       <c r="N13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="7"/>
+      <c r="O13" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -1539,7 +1549,9 @@
       <c r="N14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="7"/>
+      <c r="O14" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -1585,7 +1597,9 @@
       <c r="N15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="7"/>
+      <c r="O15" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1631,7 +1645,9 @@
       <c r="N16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="7"/>
+      <c r="O16" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -1677,7 +1693,9 @@
       <c r="N17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="7"/>
+      <c r="O17" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -1723,7 +1741,9 @@
       <c r="N18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="7"/>
+      <c r="O18" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -1769,7 +1789,9 @@
       <c r="N19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O19" s="7"/>
+      <c r="O19" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -1815,7 +1837,9 @@
       <c r="N20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="7"/>
+      <c r="O20" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -1861,7 +1885,9 @@
       <c r="N21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="7"/>
+      <c r="O21" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -1907,7 +1933,9 @@
       <c r="N22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="7"/>
+      <c r="O22" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -1953,7 +1981,9 @@
       <c r="N23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O23" s="7"/>
+      <c r="O23" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -1999,7 +2029,9 @@
       <c r="N24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O24" s="7"/>
+      <c r="O24" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -2045,7 +2077,9 @@
       <c r="N25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O25" s="7"/>
+      <c r="O25" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -2091,7 +2125,9 @@
       <c r="N26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="7"/>
+      <c r="O26" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -2137,7 +2173,9 @@
       <c r="N27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O27" s="7"/>
+      <c r="O27" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -2183,7 +2221,9 @@
       <c r="N28" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O28" s="10"/>
+      <c r="O28" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -2229,7 +2269,9 @@
       <c r="N29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O29" s="7"/>
+      <c r="O29" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -2275,7 +2317,9 @@
       <c r="N30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O30" s="7"/>
+      <c r="O30" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -2283,38 +2327,38 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="22" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
         <v>65</v>
       </c>
@@ -2342,8 +2386,11 @@
       <c r="N33" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O33" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="s">
         <v>66</v>
       </c>
@@ -2371,8 +2418,11 @@
       <c r="N34" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O34" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>68</v>
       </c>
@@ -2400,8 +2450,11 @@
       <c r="N35" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O35" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -2429,8 +2482,11 @@
       <c r="N36" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>70</v>
       </c>
@@ -2458,8 +2514,11 @@
       <c r="N37" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O37" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>71</v>
       </c>
@@ -2487,20 +2546,23 @@
       <c r="N38" s="12" t="s">
         <v>63</v>
       </c>
+      <c r="O38" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-267-S01.xlsx
+++ b/JS-267-S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHTUE\Desktop\NODEREST-267TUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1214275B-4DE9-42F1-8BD4-8AE4F1A0F868}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60341FAE-5E9E-4E3F-B922-DDD5B7E57623}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,18 +681,6 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -705,7 +693,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,130 +1050,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="22" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="17" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,24 +1189,24 @@
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1550,7 +1550,7 @@
         <v>67</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -2327,36 +2327,36 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="16" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
@@ -2552,17 +2552,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
